--- a/biology/Botanique/Alopecurus_bulbosus/Alopecurus_bulbosus.xlsx
+++ b/biology/Botanique/Alopecurus_bulbosus/Alopecurus_bulbosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulpin bulbeux
-Le Vulpin bulbeux (Alopecurus bulbosus) est une plante du genre Alopecurus et de la famille des Poaceae (graminées)[1].
+Le Vulpin bulbeux (Alopecurus bulbosus) est une plante du genre Alopecurus et de la famille des Poaceae (graminées).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette graminée vivace a les glumes velues et soudées seulement à la base, sur une courte distance. La plante tient son nom de ses tiges bulbeuses à la base.
 Elle mesure de 10 à 60 centimètres.
-Les fleurs mesurent de 30 à 50 millimètres. La floraison a lieu de mai à juillet[2].
+Les fleurs mesurent de 30 à 50 millimètres. La floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante pousse de préférences dans les pelouses et prairies humides. Elle est originaire de l'Europe méditerranéenne et atlantique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante pousse de préférences dans les pelouses et prairies humides. Elle est originaire de l'Europe méditerranéenne et atlantique.
 </t>
         </is>
       </c>
